--- a/数据整理/stocks/A股/上证主板/600210-紫江企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600210-紫江企业.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -961,7 +962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,17 +973,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -992,13 +1013,215 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>7.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600210-紫江企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600210-紫江企业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1168,7 +1169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,17 +1180,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1220,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.78</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1215,13 +1258,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0406</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>7.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600210-紫江企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600210-紫江企业.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,511 +453,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011328</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城新能源产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2251</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011329</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城新能源产业股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>59.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7738</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002683</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>民生加银前沿科技灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2116</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1480</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>690004</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银稳健成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0730</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011084</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通资管新添益6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011085</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通资管新添益6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0406</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1163,59 +869,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1230,151 +936,445 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>90.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1358</t>
+          <t>4.2251</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7738</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011329</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城新能源产业股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0406</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.78</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600210-紫江企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600210-紫江企业.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>5.18</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>7.78</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7.72</v>
       </c>
     </row>
@@ -532,6 +549,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -663,7 +888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -869,7 +1094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
